--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_32.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_32.xlsx
@@ -508,246 +508,246 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_2</t>
+          <t>model_1_32_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9929716501632582</v>
+        <v>0.8384374750231898</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8043057094018145</v>
+        <v>0.6072337784644346</v>
       </c>
       <c r="D2" t="n">
-        <v>0.747285019620888</v>
+        <v>0.7260094536193186</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9869445630463446</v>
+        <v>0.7420997938615155</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0292556938301175</v>
+        <v>0.3829343068170518</v>
       </c>
       <c r="G2" t="n">
-        <v>1.308608622319419</v>
+        <v>2.626429531930482</v>
       </c>
       <c r="H2" t="n">
-        <v>0.903946831559598</v>
+        <v>0.980048297519015</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04472427928691017</v>
+        <v>0.4253027368874079</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5245779548930074</v>
+        <v>1.49281027650092</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1710429590194157</v>
+        <v>0.6188168604822042</v>
       </c>
       <c r="L2" t="n">
-        <v>1.449814389551477</v>
+        <v>0.7799999659890244</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1737367146437407</v>
+        <v>0.6285626074448833</v>
       </c>
       <c r="N2" t="n">
-        <v>137.0633621267791</v>
+        <v>35.91978365436814</v>
       </c>
       <c r="O2" t="n">
-        <v>278.3985346699955</v>
+        <v>72.88436724259397</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_0</t>
+          <t>model_1_32_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9932884672093436</v>
+        <v>0.8380207128670005</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8039552327109867</v>
+        <v>0.6063100793216027</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7436229080868202</v>
+        <v>0.7244659079865886</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9904414340584684</v>
+        <v>0.7486595538794669</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02793693441777531</v>
+        <v>0.3839221134102629</v>
       </c>
       <c r="G3" t="n">
-        <v>1.310952261564782</v>
+        <v>2.632606312351842</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9170459921755312</v>
+        <v>0.985569470747372</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0327449762324276</v>
+        <v>0.4144850491828028</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5324067472892468</v>
+        <v>1.474547389503456</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1671434546064407</v>
+        <v>0.6196144877343193</v>
       </c>
       <c r="L3" t="n">
-        <v>1.429538098602009</v>
+        <v>0.7794324600742135</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1697757969343358</v>
+        <v>0.6293727965288846</v>
       </c>
       <c r="N3" t="n">
-        <v>137.1556113027343</v>
+        <v>35.9146311532558</v>
       </c>
       <c r="O3" t="n">
-        <v>278.4907838459508</v>
+        <v>72.87921474148162</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_1</t>
+          <t>model_1_32_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9931757381772012</v>
+        <v>0.8381679974449355</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8038994361080591</v>
+        <v>0.6062606669011203</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7452043977797528</v>
+        <v>0.7243309591318743</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9890650765625622</v>
+        <v>0.7502730470673872</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02840617202357639</v>
+        <v>0.3835730205883695</v>
       </c>
       <c r="G4" t="n">
-        <v>1.311325373705478</v>
+        <v>2.632936733435131</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9113890952439525</v>
+        <v>0.9860521749759011</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0374599924562476</v>
+        <v>0.4118242406512922</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5288074008056295</v>
+        <v>1.466080405209714</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1685413065796524</v>
+        <v>0.6193327220391067</v>
       </c>
       <c r="L4" t="n">
-        <v>1.436752756659125</v>
+        <v>0.7796330177973591</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1711956636787862</v>
+        <v>0.6290865933056348</v>
       </c>
       <c r="N4" t="n">
-        <v>137.1222976653055</v>
+        <v>35.91645054118677</v>
       </c>
       <c r="O4" t="n">
-        <v>278.457470208522</v>
+        <v>72.88103412941258</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_3</t>
+          <t>model_1_32_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9919116825556569</v>
+        <v>0.8387090825304195</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8035258599684121</v>
+        <v>0.6056772459210906</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7526187942037569</v>
+        <v>0.7231071097267208</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9763119467070304</v>
+        <v>0.7609305459315507</v>
       </c>
       <c r="F5" t="n">
-        <v>0.033667837294536</v>
+        <v>0.3822905447037631</v>
       </c>
       <c r="G5" t="n">
-        <v>1.313823479071457</v>
+        <v>2.636838072214996</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8848682291466957</v>
+        <v>0.9904298133352692</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08114865209021979</v>
+        <v>0.394248979649487</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4970577314103425</v>
+        <v>1.417782911542608</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1834879758854405</v>
+        <v>0.6182964860839524</v>
       </c>
       <c r="L5" t="n">
-        <v>1.51765231643796</v>
+        <v>0.7803698145095075</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1863777280849527</v>
+        <v>0.6280340376700426</v>
       </c>
       <c r="N5" t="n">
-        <v>136.7824245605773</v>
+        <v>35.92314874249292</v>
       </c>
       <c r="O5" t="n">
-        <v>278.1175971037937</v>
+        <v>72.88773233071875</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_4</t>
+          <t>model_1_32_0</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9917699060184758</v>
+        <v>0.8416738859787176</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8034171408688658</v>
+        <v>0.6047176617933141</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7532565756890367</v>
+        <v>0.7183002501257014</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9749379455895808</v>
+        <v>0.8128006658006985</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03425798591553667</v>
+        <v>0.3752633894059255</v>
       </c>
       <c r="G6" t="n">
-        <v>1.314550484190729</v>
+        <v>2.643254815695916</v>
       </c>
       <c r="H6" t="n">
-        <v>0.882586921754545</v>
+        <v>1.007623671410382</v>
       </c>
       <c r="I6" t="n">
-        <v>0.08585559601982434</v>
+        <v>0.3087100641389633</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4931513898191241</v>
+        <v>1.136192795564416</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1850891296525451</v>
+        <v>0.6125874544960299</v>
       </c>
       <c r="L6" t="n">
-        <v>1.526726014817548</v>
+        <v>0.7844069936731474</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1880040984233227</v>
+        <v>0.6222350945415482</v>
       </c>
       <c r="N6" t="n">
-        <v>136.7476711520712</v>
+        <v>35.96025425562038</v>
       </c>
       <c r="O6" t="n">
-        <v>278.0828436952876</v>
+        <v>72.92483784384621</v>
       </c>
     </row>
     <row r="7">
@@ -757,242 +757,242 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9916617443523867</v>
+        <v>0.8383137803460252</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8033745715651153</v>
+        <v>0.6046847039693772</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7539090221545561</v>
+        <v>0.721340941961766</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9737781618966835</v>
+        <v>0.7700095575122559</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03470821173820619</v>
+        <v>0.3832274870298754</v>
       </c>
       <c r="G7" t="n">
-        <v>1.314835145320923</v>
+        <v>2.643475204816339</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8802531585784017</v>
+        <v>0.9967472930222214</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08982869090570758</v>
+        <v>0.3792767990090694</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4891981500780917</v>
+        <v>1.389110345154044</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1863014002583078</v>
+        <v>0.6190537028641985</v>
       </c>
       <c r="L7" t="n">
-        <v>1.533648361447248</v>
+        <v>0.7798315306839492</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1892354610793</v>
+        <v>0.6288031798576386</v>
       </c>
       <c r="N7" t="n">
-        <v>136.7215579410208</v>
+        <v>35.91825301042589</v>
       </c>
       <c r="O7" t="n">
-        <v>278.0567304842372</v>
+        <v>72.88283659865171</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_6</t>
+          <t>model_1_32_1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9915210103646076</v>
+        <v>0.8414894144523273</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8033703510669121</v>
+        <v>0.6046408092747259</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7545299250383561</v>
+        <v>0.7185829448039246</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9724277148708815</v>
+        <v>0.8098674582555574</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03529402071948883</v>
+        <v>0.3757006224591717</v>
       </c>
       <c r="G8" t="n">
-        <v>1.31486336781184</v>
+        <v>2.643768728841589</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8780322249650667</v>
+        <v>1.006612488937957</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09445494509838973</v>
+        <v>0.3135472110939272</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4853191174191303</v>
+        <v>1.157885627032716</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1878670293571728</v>
+        <v>0.612944224590763</v>
       </c>
       <c r="L8" t="n">
-        <v>1.542655336665113</v>
+        <v>0.7841557984031691</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1908257472714173</v>
+        <v>0.6225974834086341</v>
       </c>
       <c r="N8" t="n">
-        <v>136.6880834282142</v>
+        <v>35.95792533921031</v>
       </c>
       <c r="O8" t="n">
-        <v>278.0232559714307</v>
+        <v>72.92250892743613</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_7</t>
+          <t>model_1_32_4</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9913853689489007</v>
+        <v>0.8398191802886705</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8033621855983596</v>
+        <v>0.604543384206561</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7550621498359613</v>
+        <v>0.7203308108157904</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9711216546779996</v>
+        <v>0.7864265718318986</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03585863173356488</v>
+        <v>0.3796593991728548</v>
       </c>
       <c r="G9" t="n">
-        <v>1.31491797033765</v>
+        <v>2.644420210721009</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8761284877241999</v>
+        <v>1.000360473560607</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09892914240326137</v>
+        <v>0.3522035320807189</v>
       </c>
       <c r="J9" t="n">
-        <v>0.481436252839725</v>
+        <v>1.29937859627044</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1893637550682941</v>
+        <v>0.6161650746130088</v>
       </c>
       <c r="L9" t="n">
-        <v>1.551336387270354</v>
+        <v>0.7818814369888279</v>
       </c>
       <c r="M9" t="n">
-        <v>0.192346044916312</v>
+        <v>0.6258690585990616</v>
       </c>
       <c r="N9" t="n">
-        <v>136.6563419346354</v>
+        <v>35.93696149232203</v>
       </c>
       <c r="O9" t="n">
-        <v>277.9915144778518</v>
+        <v>72.90154508054785</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_8</t>
+          <t>model_1_32_2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.99126010099352</v>
+        <v>0.84119720116137</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8033109043303057</v>
+        <v>0.6045204778757858</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7556767547484511</v>
+        <v>0.7188173482469682</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9698861484483058</v>
+        <v>0.8066612540661877</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03638006294209443</v>
+        <v>0.3763932242492931</v>
       </c>
       <c r="G10" t="n">
-        <v>1.315260888413254</v>
+        <v>2.644573385460377</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8739300815890646</v>
+        <v>1.005774041413682</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1031616415431751</v>
+        <v>0.3188345562929712</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4775172444995964</v>
+        <v>1.182151749026353</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1907355838381879</v>
+        <v>0.6135089439032597</v>
       </c>
       <c r="L10" t="n">
-        <v>1.559353536414719</v>
+        <v>0.7837578909431421</v>
       </c>
       <c r="M10" t="n">
-        <v>0.193739478618006</v>
+        <v>0.6231710964857905</v>
       </c>
       <c r="N10" t="n">
-        <v>136.6274687515292</v>
+        <v>35.95424174579206</v>
       </c>
       <c r="O10" t="n">
-        <v>277.9626412947457</v>
+        <v>72.91882533401788</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_32_9</t>
+          <t>model_1_32_3</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9912058692517917</v>
+        <v>0.8407287966189847</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8029545660772968</v>
+        <v>0.604321450668448</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7561100320191292</v>
+        <v>0.7189781234543423</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9691284557199416</v>
+        <v>0.8029694385560072</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03660580401485478</v>
+        <v>0.3775034332459276</v>
       </c>
       <c r="G11" t="n">
-        <v>1.317643723951913</v>
+        <v>2.64590428131228</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8723802739147086</v>
+        <v>1.005198957819187</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1057572851296223</v>
+        <v>0.3249227221927691</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4746016170869298</v>
+        <v>1.211259565444228</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1913264331315848</v>
+        <v>0.6144130803017849</v>
       </c>
       <c r="L11" t="n">
-        <v>1.562824367885334</v>
+        <v>0.7831200634811707</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1943396331971412</v>
+        <v>0.6240894721287876</v>
       </c>
       <c r="N11" t="n">
-        <v>136.6150969430128</v>
+        <v>35.94835123128643</v>
       </c>
       <c r="O11" t="n">
-        <v>277.9502694862292</v>
+        <v>72.91293481951226</v>
       </c>
     </row>
   </sheetData>
